--- a/SeleniumExitTestAssignmentMaven/excel/data.xlsx
+++ b/SeleniumExitTestAssignmentMaven/excel/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravitkumar\eclipse-workspace\SeleniumExitTestAssignmentMaven\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravitkumar\git\ExitTestSelenium\SeleniumExitTestAssignmentMaven\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51736C34-E48C-46A5-A8B0-5D8B4A147372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8A741C-D102-4C18-9830-F0806405768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>srv408565@gmail.com</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>Usernames</t>
+  </si>
+  <si>
+    <t>Passwords</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,37 +425,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>7982967187</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>7982967187</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{54469AE5-E866-4BA1-9E01-77012A62BE91}"/>
+    <hyperlink ref="A3" r:id="rId2" display="sr@gmail" xr:uid="{75A3F5B3-B591-4CE7-9A6D-0EFB6081B17A}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B4145D2D-07D8-4060-9D68-1A58DC38B7F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -455,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1DA03B-A8D0-418E-86EE-F4FDD94AFC9A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -493,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C050DE3-2C5C-4BC7-9913-B27D426DA606}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
